--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1852383.232518923</v>
+        <v>1778051.40616063</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166606.6416552147</v>
+        <v>198446.855844418</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15609235.68401652</v>
+        <v>15609235.68401654</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6501334.547208289</v>
+        <v>6501334.547208291</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.3316001239159</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.263491967783891</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S11" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.232657744403661</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>71.34474646194566</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W12" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>23.41347583277413</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R14" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>131.6739630196907</v>
       </c>
       <c r="T14" t="n">
         <v>200.1948230289689</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y14" t="n">
         <v>200.1948230289689</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.1540657835377</v>
+        <v>140.5342625939466</v>
       </c>
       <c r="H15" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W15" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>200.1948230289689</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U17" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.44608397550807</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>22.11559458593017</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>176.3316001239157</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>156.1816162589254</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7.380072849445255</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U21" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.3316001239157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>22.11559458593017</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G23" t="n">
-        <v>3.263491967783781</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R23" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>156.1816162589254</v>
       </c>
     </row>
     <row r="24">
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="U24" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="V24" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.4809375161092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>156.1816162589254</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="V26" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>53.09543380873263</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>8.659623877332267</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="T29" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.263491967784006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>200.1948230289689</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X30" t="n">
-        <v>53.09543380873263</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>8.659623877332267</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>156.1816162589256</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,73 +3110,73 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>133.0827343114269</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>35.79733752996917</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>199.0454856367754</v>
-      </c>
-      <c r="T33" t="n">
-        <v>8.60086567471307</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
     </row>
     <row r="34">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="U35" t="n">
+        <v>200.1948230289689</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>176.3316001239157</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>51.94609641653918</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S36" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V36" t="n">
-        <v>53.09543380873263</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>200.1948230289689</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C38" t="n">
-        <v>23.41347583277435</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>7.380072849445255</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>53.09543380873263</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.659623877332267</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3751,64 +3751,64 @@
         <v>200.1948230289689</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="U41" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>176.3316001239157</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>52.40532806080355</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>177.4809375161092</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W42" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="X42" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,50 +3988,50 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G44" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="H44" t="n">
-        <v>23.41347583277413</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24.50765323923468</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>151.823946884681</v>
+      </c>
+      <c r="T44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>152.9181242911417</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>16.96693547576952</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.44313264804851</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22.11559458593026</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>420.4495717594265</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="C11" t="n">
-        <v>218.232578800872</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="D11" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="E11" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="F11" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="G11" t="n">
-        <v>16.01558584231752</v>
+        <v>221.529035333987</v>
       </c>
       <c r="H11" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="I11" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="J11" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K11" t="n">
-        <v>72.05899007812775</v>
+        <v>72.05899007812809</v>
       </c>
       <c r="L11" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M11" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N11" t="n">
         <v>572.7990561059415</v>
       </c>
       <c r="O11" t="n">
-        <v>723.4688780473044</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P11" t="n">
-        <v>800.7792921158758</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Q11" t="n">
-        <v>800.7792921158758</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="R11" t="n">
-        <v>800.7792921158758</v>
+        <v>625.9630212510959</v>
       </c>
       <c r="S11" t="n">
-        <v>598.5622991573214</v>
+        <v>625.9630212510959</v>
       </c>
       <c r="T11" t="n">
-        <v>598.5622991573214</v>
+        <v>625.9630212510959</v>
       </c>
       <c r="U11" t="n">
-        <v>598.5622991573214</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="V11" t="n">
-        <v>598.5622991573214</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="W11" t="n">
-        <v>598.5622991573214</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="X11" t="n">
-        <v>598.5622991573214</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="Y11" t="n">
-        <v>598.5622991573214</v>
+        <v>423.7460282925415</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>324.279905732155</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="C12" t="n">
-        <v>324.279905732155</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D12" t="n">
-        <v>150.4425901972942</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="E12" t="n">
-        <v>150.4425901972942</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="F12" t="n">
-        <v>150.4425901972942</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="G12" t="n">
-        <v>150.4425901972942</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="H12" t="n">
-        <v>16.01558584231752</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="I12" t="n">
-        <v>16.01558584231752</v>
+        <v>20.29099770535151</v>
       </c>
       <c r="J12" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K12" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L12" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0667794178152</v>
+        <v>356.1602498777252</v>
       </c>
       <c r="N12" t="n">
-        <v>573.2596542164945</v>
+        <v>484.6350314517287</v>
       </c>
       <c r="O12" t="n">
-        <v>678.8352059693929</v>
+        <v>671.04806750978</v>
       </c>
       <c r="P12" t="n">
-        <v>800.7792921158758</v>
+        <v>792.992153656263</v>
       </c>
       <c r="Q12" t="n">
-        <v>800.7792921158758</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R12" t="n">
-        <v>800.7792921158758</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S12" t="n">
-        <v>800.7792921158758</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T12" t="n">
-        <v>728.713891649264</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="U12" t="n">
-        <v>728.713891649264</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="V12" t="n">
-        <v>728.713891649264</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W12" t="n">
-        <v>526.4968986907095</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X12" t="n">
-        <v>526.4968986907095</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y12" t="n">
-        <v>324.279905732155</v>
+        <v>194.1283132402123</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L13" t="n">
-        <v>16.01558584231752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M13" t="n">
-        <v>21.82328755457459</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.8825543895327</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="C14" t="n">
-        <v>241.8825543895327</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="D14" t="n">
-        <v>241.8825543895327</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="E14" t="n">
-        <v>218.2325788008719</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="F14" t="n">
-        <v>218.2325788008719</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="G14" t="n">
-        <v>218.2325788008719</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="H14" t="n">
-        <v>218.2325788008719</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="I14" t="n">
-        <v>16.01558584231751</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="J14" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K14" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812809</v>
       </c>
       <c r="L14" t="n">
         <v>199.5520805245966</v>
       </c>
       <c r="M14" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N14" t="n">
         <v>572.7990561059413</v>
@@ -5299,31 +5299,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q14" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="R14" t="n">
-        <v>646.3165403066415</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="S14" t="n">
-        <v>646.3165403066415</v>
+        <v>647.421770010137</v>
       </c>
       <c r="T14" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="U14" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="V14" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="W14" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="X14" t="n">
-        <v>444.0995473480871</v>
+        <v>242.9877840930282</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.8825543895327</v>
+        <v>40.77079113447375</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>472.9203762205771</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="C15" t="n">
-        <v>472.9203762205771</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="D15" t="n">
-        <v>299.0830606857162</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="E15" t="n">
-        <v>299.0830606857162</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="F15" t="n">
-        <v>299.0830606857162</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="G15" t="n">
-        <v>150.4425901972942</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="H15" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="I15" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="J15" t="n">
         <v>16.01558584231751</v>
@@ -5366,43 +5366,43 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M15" t="n">
-        <v>294.2292951126619</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N15" t="n">
-        <v>492.4221699113411</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O15" t="n">
-        <v>678.8352059693925</v>
+        <v>759.6726902745456</v>
       </c>
       <c r="P15" t="n">
-        <v>800.7792921158755</v>
+        <v>799.6444597731088</v>
       </c>
       <c r="Q15" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R15" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S15" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T15" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U15" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V15" t="n">
-        <v>675.1373691791315</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W15" t="n">
-        <v>472.9203762205771</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X15" t="n">
-        <v>472.9203762205771</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="Y15" t="n">
-        <v>472.9203762205771</v>
+        <v>194.1283132402122</v>
       </c>
     </row>
     <row r="16">
@@ -5475,7 +5475,7 @@
         <v>38.35457027255001</v>
       </c>
       <c r="W16" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X16" t="n">
         <v>16.01558584231751</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.01558584231751</v>
+        <v>218.232578800872</v>
       </c>
       <c r="C17" t="n">
         <v>16.01558584231751</v>
@@ -5545,22 +5545,22 @@
         <v>598.5622991573213</v>
       </c>
       <c r="T17" t="n">
-        <v>598.5622991573213</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="U17" t="n">
-        <v>420.4495717594265</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="V17" t="n">
+        <v>396.3453061987668</v>
+      </c>
+      <c r="W17" t="n">
+        <v>396.3453061987668</v>
+      </c>
+      <c r="X17" t="n">
+        <v>396.3453061987668</v>
+      </c>
+      <c r="Y17" t="n">
         <v>218.232578800872</v>
-      </c>
-      <c r="W17" t="n">
-        <v>16.01558584231751</v>
-      </c>
-      <c r="X17" t="n">
-        <v>16.01558584231751</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>409.8113698756637</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="C18" t="n">
-        <v>409.8113698756637</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D18" t="n">
-        <v>348.7547193953525</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="E18" t="n">
-        <v>348.7547193953525</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F18" t="n">
-        <v>348.7547193953525</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G18" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J18" t="n">
         <v>16.01558584231751</v>
@@ -5603,10 +5603,10 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M18" t="n">
-        <v>286.4421566530494</v>
+        <v>387.8223176348796</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6350314517287</v>
+        <v>586.0151924335588</v>
       </c>
       <c r="O18" t="n">
         <v>671.04806750978</v>
@@ -5621,25 +5621,25 @@
         <v>800.7792921158757</v>
       </c>
       <c r="S18" t="n">
-        <v>599.7232460181227</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T18" t="n">
-        <v>599.7232460181227</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="U18" t="n">
-        <v>599.7232460181227</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="V18" t="n">
-        <v>599.7232460181227</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W18" t="n">
-        <v>599.7232460181227</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="X18" t="n">
-        <v>599.7232460181227</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y18" t="n">
-        <v>599.7232460181227</v>
+        <v>194.1283132402123</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G19" t="n">
         <v>16.01558584231751</v>
@@ -5691,34 +5691,34 @@
         <v>38.35457027255001</v>
       </c>
       <c r="P19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.3453061987666</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="C20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="D20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="F20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G20" t="n">
-        <v>194.1283132402122</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H20" t="n">
         <v>16.01558584231751</v>
@@ -5773,31 +5773,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="R20" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="S20" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="T20" t="n">
-        <v>598.562299157321</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="U20" t="n">
-        <v>598.562299157321</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="V20" t="n">
-        <v>598.562299157321</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="W20" t="n">
-        <v>598.562299157321</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="X20" t="n">
-        <v>396.3453061987666</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.3453061987666</v>
+        <v>218.2325788008719</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.01558584231751</v>
+        <v>598.562299157321</v>
       </c>
       <c r="C21" t="n">
-        <v>16.01558584231751</v>
+        <v>591.1076801174773</v>
       </c>
       <c r="D21" t="n">
-        <v>16.01558584231751</v>
+        <v>417.2703645826165</v>
       </c>
       <c r="E21" t="n">
-        <v>16.01558584231751</v>
+        <v>227.9162784234217</v>
       </c>
       <c r="F21" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="G21" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="H21" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="I21" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="J21" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K21" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L21" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M21" t="n">
-        <v>375.0667794178151</v>
+        <v>438.1325665256448</v>
       </c>
       <c r="N21" t="n">
-        <v>573.2596542164943</v>
+        <v>566.6073480996482</v>
       </c>
       <c r="O21" t="n">
-        <v>671.0480675097798</v>
+        <v>753.0203841576996</v>
       </c>
       <c r="P21" t="n">
         <v>792.9921536562628</v>
@@ -5861,22 +5861,22 @@
         <v>800.7792921158755</v>
       </c>
       <c r="T21" t="n">
+        <v>800.7792921158755</v>
+      </c>
+      <c r="U21" t="n">
+        <v>800.7792921158755</v>
+      </c>
+      <c r="V21" t="n">
         <v>598.562299157321</v>
       </c>
-      <c r="U21" t="n">
-        <v>396.3453061987666</v>
-      </c>
-      <c r="V21" t="n">
-        <v>396.3453061987666</v>
-      </c>
       <c r="W21" t="n">
-        <v>396.3453061987666</v>
+        <v>598.562299157321</v>
       </c>
       <c r="X21" t="n">
-        <v>194.1283132402122</v>
+        <v>598.562299157321</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.01558584231751</v>
+        <v>598.562299157321</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G22" t="n">
         <v>16.01558584231751</v>
@@ -5937,25 +5937,25 @@
         <v>38.35457027255001</v>
       </c>
       <c r="S22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.31204237543244</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="C23" t="n">
-        <v>19.31204237543244</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="D23" t="n">
-        <v>19.31204237543244</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="E23" t="n">
-        <v>19.31204237543244</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="F23" t="n">
-        <v>19.31204237543244</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="G23" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="H23" t="n">
         <v>16.01558584231751</v>
@@ -5989,16 +5989,16 @@
         <v>16.01558584231751</v>
       </c>
       <c r="J23" t="n">
-        <v>16.01558584231729</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K23" t="n">
-        <v>72.05899007812778</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L23" t="n">
-        <v>199.5520805245963</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M23" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844016</v>
       </c>
       <c r="N23" t="n">
         <v>572.7990561059413</v>
@@ -6013,28 +6013,28 @@
         <v>780.4257730603297</v>
       </c>
       <c r="R23" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="S23" t="n">
-        <v>423.7460282925413</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="T23" t="n">
-        <v>221.5290353339869</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="U23" t="n">
-        <v>221.5290353339869</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="V23" t="n">
-        <v>221.5290353339869</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="W23" t="n">
-        <v>19.31204237543244</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="X23" t="n">
-        <v>19.31204237543244</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.31204237543244</v>
+        <v>622.6665647179808</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M24" t="n">
-        <v>286.4421566530492</v>
+        <v>441.3978573201848</v>
       </c>
       <c r="N24" t="n">
         <v>484.6350314517284</v>
@@ -6095,22 +6095,22 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S24" t="n">
-        <v>599.7232460181225</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T24" t="n">
-        <v>397.5062530595681</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U24" t="n">
-        <v>195.2892601010136</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="V24" t="n">
-        <v>195.2892601010136</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="W24" t="n">
-        <v>195.2892601010136</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X24" t="n">
-        <v>195.2892601010136</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y24" t="n">
         <v>16.01558584231751</v>
@@ -6165,10 +6165,10 @@
         <v>38.35457027255001</v>
       </c>
       <c r="P25" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R25" t="n">
         <v>16.01558584231751</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173.7747941846664</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="C26" t="n">
-        <v>173.7747941846664</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="D26" t="n">
-        <v>173.7747941846664</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E26" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="F26" t="n">
         <v>16.01558584231751</v>
@@ -6229,49 +6229,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K26" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812801</v>
       </c>
       <c r="L26" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M26" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N26" t="n">
-        <v>572.7990561059413</v>
+        <v>572.7990561059415</v>
       </c>
       <c r="O26" t="n">
-        <v>723.4688780473041</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P26" t="n">
+        <v>800.7792921158757</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>800.7792921158757</v>
+      </c>
+      <c r="R26" t="n">
+        <v>800.7792921158757</v>
+      </c>
+      <c r="S26" t="n">
+        <v>800.7792921158757</v>
+      </c>
+      <c r="T26" t="n">
         <v>800.7792921158755</v>
       </c>
-      <c r="Q26" t="n">
-        <v>780.4257730603297</v>
-      </c>
-      <c r="R26" t="n">
-        <v>780.4257730603297</v>
-      </c>
-      <c r="S26" t="n">
-        <v>780.4257730603297</v>
-      </c>
-      <c r="T26" t="n">
-        <v>780.4257730603297</v>
-      </c>
       <c r="U26" t="n">
-        <v>578.2087801017752</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="V26" t="n">
-        <v>578.2087801017752</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="W26" t="n">
-        <v>578.2087801017752</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X26" t="n">
-        <v>375.9917871432208</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.7747941846664</v>
+        <v>218.2325788008719</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.64733716426966</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="C27" t="n">
-        <v>16.01558584231751</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="D27" t="n">
-        <v>16.01558584231751</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="E27" t="n">
         <v>16.01558584231751</v>
@@ -6308,49 +6308,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K27" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M27" t="n">
-        <v>286.4421566530492</v>
+        <v>294.2292951126619</v>
       </c>
       <c r="N27" t="n">
-        <v>484.6350314517284</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O27" t="n">
-        <v>671.0480675097798</v>
+        <v>678.8352059693925</v>
       </c>
       <c r="P27" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q27" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R27" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S27" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T27" t="n">
-        <v>271.8643301228241</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U27" t="n">
-        <v>69.64733716426966</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V27" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W27" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
       <c r="X27" t="n">
-        <v>69.64733716426966</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.64733716426966</v>
+        <v>194.1283132402122</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G28" t="n">
         <v>16.01558584231751</v>
@@ -6399,37 +6399,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O28" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="C29" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="D29" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E29" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="F29" t="n">
         <v>16.01558584231751</v>
@@ -6484,31 +6484,31 @@
         <v>800.7792921158757</v>
       </c>
       <c r="Q29" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R29" t="n">
-        <v>625.9630212510959</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S29" t="n">
-        <v>423.7460282925415</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T29" t="n">
-        <v>221.5290353339871</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="U29" t="n">
-        <v>221.5290353339871</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="V29" t="n">
-        <v>19.31204237543267</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="W29" t="n">
-        <v>19.31204237543267</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="X29" t="n">
-        <v>19.31204237543267</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K30" t="n">
-        <v>22.84526795866201</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L30" t="n">
-        <v>88.24928185437003</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M30" t="n">
-        <v>286.4421566530492</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N30" t="n">
-        <v>484.6350314517284</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O30" t="n">
-        <v>671.0480675097798</v>
+        <v>753.0203841576996</v>
       </c>
       <c r="P30" t="n">
         <v>792.9921536562628</v>
@@ -6566,25 +6566,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R30" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S30" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T30" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U30" t="n">
-        <v>271.8643301228241</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V30" t="n">
-        <v>69.64733716426966</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W30" t="n">
-        <v>69.64733716426966</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="X30" t="n">
-        <v>16.01558584231751</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="Y30" t="n">
         <v>16.01558584231751</v>
@@ -6636,37 +6636,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O31" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.01558584231751</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="C32" t="n">
-        <v>16.01558584231751</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="D32" t="n">
-        <v>16.01558584231751</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="E32" t="n">
-        <v>16.01558584231751</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="F32" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="G32" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="H32" t="n">
         <v>16.01558584231751</v>
@@ -6721,31 +6721,31 @@
         <v>800.7792921158757</v>
       </c>
       <c r="Q32" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R32" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S32" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T32" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="U32" t="n">
-        <v>578.2087801017755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="V32" t="n">
-        <v>578.2087801017755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="W32" t="n">
-        <v>375.991787143221</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="X32" t="n">
-        <v>218.2325788008719</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.01558584231751</v>
+        <v>800.7792921158757</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>388.8185099537973</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C33" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D33" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E33" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F33" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G33" t="n">
-        <v>186.6015169952429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J33" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K33" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L33" t="n">
-        <v>88.24928185437003</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M33" t="n">
-        <v>286.4421566530492</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N33" t="n">
-        <v>484.6350314517284</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O33" t="n">
-        <v>671.0480675097798</v>
+        <v>759.6726902745456</v>
       </c>
       <c r="P33" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q33" t="n">
         <v>800.7792921158755</v>
@@ -6806,25 +6806,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S33" t="n">
-        <v>599.7232460181225</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T33" t="n">
-        <v>591.0355029123517</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U33" t="n">
-        <v>591.0355029123517</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V33" t="n">
-        <v>388.8185099537973</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W33" t="n">
-        <v>388.8185099537973</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X33" t="n">
-        <v>388.8185099537973</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y33" t="n">
-        <v>388.8185099537973</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="34">
@@ -6885,7 +6885,7 @@
         <v>38.35457027255001</v>
       </c>
       <c r="S34" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T34" t="n">
         <v>16.01558584231751</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C35" t="n">
         <v>16.01558584231751</v>
@@ -6964,25 +6964,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S35" t="n">
-        <v>800.7792921158755</v>
+        <v>598.562299157321</v>
       </c>
       <c r="T35" t="n">
-        <v>598.562299157321</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="U35" t="n">
-        <v>420.4495717594264</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="V35" t="n">
-        <v>420.4495717594264</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="W35" t="n">
-        <v>420.4495717594264</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="X35" t="n">
-        <v>218.2325788008719</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="C36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="D36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="E36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="F36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="G36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="H36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="I36" t="n">
         <v>16.01558584231751</v>
@@ -7019,22 +7019,22 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K36" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L36" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M36" t="n">
-        <v>286.4421566530492</v>
+        <v>441.3978573201848</v>
       </c>
       <c r="N36" t="n">
-        <v>484.6350314517284</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O36" t="n">
-        <v>671.0480675097798</v>
+        <v>678.8352059693925</v>
       </c>
       <c r="P36" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q36" t="n">
         <v>800.7792921158755</v>
@@ -7043,25 +7043,25 @@
         <v>675.1373691791315</v>
       </c>
       <c r="S36" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="T36" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="U36" t="n">
-        <v>474.0813230813785</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="V36" t="n">
-        <v>420.4495717594264</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="W36" t="n">
-        <v>218.2325788008719</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="X36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.01558584231751</v>
+        <v>68.4863903034682</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>38.35457027255001</v>
       </c>
       <c r="R37" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S37" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T37" t="n">
         <v>16.01558584231751</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.66556143097847</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C38" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="D38" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="E38" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="F38" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G38" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="H38" t="n">
         <v>16.01558584231751</v>
@@ -7198,28 +7198,28 @@
         <v>800.7792921158757</v>
       </c>
       <c r="R38" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S38" t="n">
-        <v>444.0995473480873</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T38" t="n">
-        <v>241.8825543895329</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U38" t="n">
-        <v>241.8825543895329</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V38" t="n">
-        <v>241.8825543895329</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W38" t="n">
-        <v>241.8825543895329</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="X38" t="n">
-        <v>241.8825543895329</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.66556143097847</v>
+        <v>598.562299157321</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
       <c r="C39" t="n">
-        <v>69.64733716426966</v>
+        <v>591.1076801174773</v>
       </c>
       <c r="D39" t="n">
-        <v>69.64733716426966</v>
+        <v>417.2703645826165</v>
       </c>
       <c r="E39" t="n">
-        <v>16.01558584231751</v>
+        <v>227.9162784234217</v>
       </c>
       <c r="F39" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="G39" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="H39" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="I39" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="J39" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K39" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L39" t="n">
-        <v>88.24928185437003</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M39" t="n">
-        <v>286.4421566530492</v>
+        <v>363.9473883373377</v>
       </c>
       <c r="N39" t="n">
-        <v>484.6350314517284</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O39" t="n">
-        <v>671.0480675097798</v>
+        <v>678.8352059693925</v>
       </c>
       <c r="P39" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q39" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R39" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S39" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T39" t="n">
-        <v>271.8643301228241</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U39" t="n">
-        <v>271.8643301228241</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V39" t="n">
-        <v>69.64733716426966</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W39" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
       <c r="X39" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.64733716426966</v>
+        <v>598.562299157321</v>
       </c>
     </row>
     <row r="40">
@@ -7347,37 +7347,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O40" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P40" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>420.4495717594264</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="C41" t="n">
-        <v>420.4495717594264</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="D41" t="n">
-        <v>420.4495717594264</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E41" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F41" t="n">
         <v>16.01558584231751</v>
@@ -7438,16 +7438,16 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S41" t="n">
-        <v>622.6665647179808</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T41" t="n">
         <v>622.6665647179808</v>
       </c>
       <c r="U41" t="n">
-        <v>622.6665647179808</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="V41" t="n">
-        <v>622.6665647179808</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="W41" t="n">
         <v>420.4495717594264</v>
@@ -7456,7 +7456,7 @@
         <v>420.4495717594264</v>
       </c>
       <c r="Y41" t="n">
-        <v>420.4495717594264</v>
+        <v>218.2325788008719</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.4334300563075</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C42" t="n">
-        <v>206.4334300563075</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D42" t="n">
-        <v>206.4334300563075</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E42" t="n">
-        <v>206.4334300563075</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F42" t="n">
-        <v>153.4987552474151</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G42" t="n">
-        <v>153.4987552474151</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H42" t="n">
-        <v>153.4987552474151</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I42" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J42" t="n">
         <v>16.01558584231751</v>
@@ -7496,7 +7496,7 @@
         <v>82.34666374468725</v>
       </c>
       <c r="L42" t="n">
-        <v>165.7545135386585</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M42" t="n">
         <v>363.9473883373377</v>
@@ -7517,25 +7517,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S42" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="T42" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="U42" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="V42" t="n">
-        <v>800.7792921158755</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="W42" t="n">
-        <v>598.562299157321</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X42" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y42" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M43" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N43" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O43" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P43" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q43" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R43" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S43" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T43" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y43" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="C44" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="D44" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="E44" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="F44" t="n">
-        <v>444.0995473480871</v>
+        <v>242.9877840930282</v>
       </c>
       <c r="G44" t="n">
-        <v>241.8825543895327</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="H44" t="n">
-        <v>218.2325788008719</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="I44" t="n">
-        <v>16.01558584231751</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="J44" t="n">
         <v>16.01558584231751</v>
@@ -7657,10 +7657,10 @@
         <v>199.5520805245965</v>
       </c>
       <c r="M44" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N44" t="n">
-        <v>572.7990561059415</v>
+        <v>572.7990561059413</v>
       </c>
       <c r="O44" t="n">
         <v>723.4688780473041</v>
@@ -7672,28 +7672,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R44" t="n">
-        <v>646.3165403066415</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S44" t="n">
-        <v>646.3165403066415</v>
+        <v>647.421770010137</v>
       </c>
       <c r="T44" t="n">
-        <v>646.3165403066415</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="U44" t="n">
-        <v>646.3165403066415</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="V44" t="n">
-        <v>646.3165403066415</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="W44" t="n">
-        <v>646.3165403066415</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="X44" t="n">
-        <v>646.3165403066415</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="Y44" t="n">
-        <v>444.0995473480871</v>
+        <v>445.2047770515826</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.562299157321</v>
+        <v>365.5946671603338</v>
       </c>
       <c r="C45" t="n">
-        <v>396.3453061987666</v>
+        <v>365.5946671603338</v>
       </c>
       <c r="D45" t="n">
-        <v>222.5079906639058</v>
+        <v>191.757351625473</v>
       </c>
       <c r="E45" t="n">
-        <v>33.15390450471097</v>
+        <v>191.757351625473</v>
       </c>
       <c r="F45" t="n">
-        <v>33.15390450471097</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G45" t="n">
-        <v>33.15390450471097</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H45" t="n">
-        <v>33.15390450471097</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I45" t="n">
-        <v>33.15390450471097</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J45" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K45" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L45" t="n">
-        <v>176.8739046191359</v>
+        <v>88.24928185437003</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0667794178151</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N45" t="n">
-        <v>573.2596542164943</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O45" t="n">
-        <v>759.6726902745456</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P45" t="n">
         <v>792.9921536562628</v>
@@ -7754,25 +7754,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S45" t="n">
-        <v>800.7792921158755</v>
+        <v>770.0286530774426</v>
       </c>
       <c r="T45" t="n">
-        <v>800.7792921158755</v>
+        <v>770.0286530774426</v>
       </c>
       <c r="U45" t="n">
-        <v>800.7792921158755</v>
+        <v>770.0286530774426</v>
       </c>
       <c r="V45" t="n">
-        <v>800.7792921158755</v>
+        <v>567.8116601188882</v>
       </c>
       <c r="W45" t="n">
-        <v>800.7792921158755</v>
+        <v>365.5946671603338</v>
       </c>
       <c r="X45" t="n">
-        <v>800.7792921158755</v>
+        <v>365.5946671603338</v>
       </c>
       <c r="Y45" t="n">
-        <v>598.562299157321</v>
+        <v>365.5946671603338</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L46" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M46" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y46" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
   </sheetData>
@@ -8771,16 +8771,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>94.50510685705672</v>
+        <v>8.40651348083486</v>
       </c>
       <c r="N12" t="n">
-        <v>70.4223163885614</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>102.4042030119497</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L15" t="n">
         <v>96.41848977889939</v>
@@ -9017,16 +9017,16 @@
         <v>121.083316575</v>
       </c>
       <c r="N15" t="n">
-        <v>70.42231638856134</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.62009481132077</v>
+        <v>47.90059368319343</v>
       </c>
       <c r="R15" t="n">
         <v>11.83563415094341</v>
@@ -9257,7 +9257,7 @@
         <v>124.6290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>82.80031984638366</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>94.50510685705669</v>
+        <v>121.083316575</v>
       </c>
       <c r="N21" t="n">
-        <v>70.42231638856137</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>12.88438203743875</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9725,10 +9725,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>121.083316575</v>
       </c>
       <c r="N24" t="n">
-        <v>70.42231638856134</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>102.4042030119497</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L27" t="n">
         <v>96.41848977889939</v>
@@ -9974,7 +9974,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.62009481132077</v>
+        <v>46.7542983874695</v>
       </c>
       <c r="R27" t="n">
         <v>11.83563415094341</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>8.658541637386366</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N30" t="n">
-        <v>70.42231638856134</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N33" t="n">
-        <v>70.42231638856134</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>1.146295295723959</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10667,16 +10667,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
-        <v>121.083316575</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N36" t="n">
-        <v>124.6290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
@@ -10907,13 +10907,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>6.898668804388379</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>121.083316575</v>
+        <v>16.27230990468586</v>
       </c>
       <c r="N39" t="n">
-        <v>70.42231638856134</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>102.4042030119497</v>
@@ -11144,10 +11144,10 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>18.18569282652854</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>94.50510685705666</v>
+        <v>16.27230990468586</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081362</v>
       </c>
       <c r="N44" t="n">
         <v>113.7102003471159</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>94.50510685705666</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.2247274731472</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C11" t="n">
-        <v>133.4022964452395</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>118.9369326142787</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
         <v>359.9585549362873</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H11" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531762</v>
       </c>
       <c r="I11" t="n">
         <v>218.4609991818855</v>
       </c>
       <c r="J11" t="n">
-        <v>24.50765323923466</v>
+        <v>21.24416127145079</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.48908307771805</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T11" t="n">
         <v>215.3895565962661</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781297</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23354,13 +23354,13 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I12" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J12" t="n">
-        <v>35.79733752996914</v>
+        <v>31.56467978556551</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>199.0454856367754</v>
       </c>
       <c r="T12" t="n">
-        <v>156.8025265268877</v>
+        <v>27.95244995986445</v>
       </c>
       <c r="U12" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120345</v>
       </c>
       <c r="W12" t="n">
-        <v>83.05443373396216</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199405</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.70144338462438</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C13" t="n">
-        <v>165.5867821959998</v>
+        <v>143.4711876100696</v>
       </c>
       <c r="D13" t="n">
         <v>141.3987433365328</v>
@@ -23442,10 +23442,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K13" t="n">
-        <v>40.38989547797919</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L13" t="n">
-        <v>0.777489009342446</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23454,10 +23454,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>13.45597070859787</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P13" t="n">
-        <v>40.84461224785825</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q13" t="n">
         <v>117.7104335796887</v>
@@ -23466,7 +23466,7 @@
         <v>202.8351353702983</v>
       </c>
       <c r="S13" t="n">
-        <v>214.515246046689</v>
+        <v>236.6308406326193</v>
       </c>
       <c r="T13" t="n">
         <v>216.3554192360613</v>
@@ -23503,7 +23503,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5450791035132</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
@@ -23515,10 +23515,10 @@
         <v>340.4091559821451</v>
       </c>
       <c r="I14" t="n">
-        <v>18.26617615291661</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J14" t="n">
-        <v>24.50765323923468</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S14" t="n">
-        <v>214.683906106687</v>
+        <v>83.00994308699632</v>
       </c>
       <c r="T14" t="n">
         <v>15.19473356729725</v>
@@ -23560,7 +23560,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>148.622056274544</v>
       </c>
       <c r="Y14" t="n">
         <v>177.7341533662133</v>
@@ -23579,7 +23579,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>13.37760459257072</v>
+        <v>19.9974077821619</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I15" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J15" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S15" t="n">
         <v>199.0454856367754</v>
@@ -23633,13 +23633,13 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W15" t="n">
         <v>83.05443373396224</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23715,10 +23715,10 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W16" t="n">
-        <v>272.3702005604075</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X16" t="n">
-        <v>217.7416213385031</v>
+        <v>195.6260267525729</v>
       </c>
       <c r="Y16" t="n">
         <v>215.5502738121359</v>
@@ -23734,7 +23734,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452395</v>
       </c>
       <c r="D17" t="n">
         <v>319.1317556432476</v>
@@ -23785,22 +23785,22 @@
         <v>14.48908307771808</v>
       </c>
       <c r="T17" t="n">
-        <v>215.3895565962661</v>
+        <v>15.19473356729719</v>
       </c>
       <c r="U17" t="n">
-        <v>72.38497118286608</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V17" t="n">
-        <v>113.1096189720542</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>125.1969024503244</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>201.5973762712663</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C18" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>111.6528584040041</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>11.12894517368696</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I18" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T18" t="n">
-        <v>228.1472729888334</v>
+        <v>27.95244995986445</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463197</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396218</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23904,7 +23904,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H19" t="n">
         <v>163.9752151566217</v>
@@ -23931,7 +23931,7 @@
         <v>13.4559707085979</v>
       </c>
       <c r="P19" t="n">
-        <v>18.7290176619281</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q19" t="n">
         <v>117.7104335796887</v>
@@ -23971,7 +23971,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>133.4022964452396</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
@@ -23983,10 +23983,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H20" t="n">
-        <v>164.0775558582294</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I20" t="n">
         <v>218.4609991818855</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>152.9181242911417</v>
@@ -24022,22 +24022,22 @@
         <v>214.683906106687</v>
       </c>
       <c r="T20" t="n">
-        <v>15.19473356729725</v>
+        <v>59.20794033734074</v>
       </c>
       <c r="U20" t="n">
         <v>248.7165713067819</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>196.4623547657941</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>160.5316703761085</v>
@@ -24071,7 +24071,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J21" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>199.0454856367754</v>
       </c>
       <c r="T21" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U21" t="n">
-        <v>49.42293565463203</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.56466628967763</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H22" t="n">
         <v>163.9752151566217</v>
@@ -24177,7 +24177,7 @@
         <v>202.8351353702983</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5152460466891</v>
+        <v>236.6308406326193</v>
       </c>
       <c r="T22" t="n">
         <v>216.3554192360613</v>
@@ -24217,13 +24217,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G23" t="n">
-        <v>418.0138017320023</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H23" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531762</v>
       </c>
       <c r="I23" t="n">
         <v>218.4609991818855</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S23" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T23" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U23" t="n">
         <v>248.7165713067819</v>
@@ -24268,13 +24268,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W23" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>221.7473601362568</v>
       </c>
     </row>
     <row r="24">
@@ -24335,25 +24335,25 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T24" t="n">
         <v>27.95244995986451</v>
       </c>
       <c r="U24" t="n">
-        <v>49.42293565463203</v>
+        <v>73.28615855968519</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>65.41532889748419</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24405,13 +24405,13 @@
         <v>13.4559707085979</v>
       </c>
       <c r="P25" t="n">
-        <v>18.72901766192809</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q25" t="n">
         <v>117.7104335796887</v>
       </c>
       <c r="R25" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S25" t="n">
         <v>236.6308406326193</v>
@@ -24451,10 +24451,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>203.776938677362</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G26" t="n">
         <v>421.2772936997861</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R26" t="n">
         <v>152.9181242911417</v>
@@ -24499,19 +24499,19 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U26" t="n">
-        <v>48.52174827781303</v>
+        <v>72.3849711828662</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503245</v>
       </c>
       <c r="X26" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>177.7341533662133</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>150.7469938065068</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>187.4605452976028</v>
+        <v>11.12894517368713</v>
       </c>
       <c r="F27" t="n">
         <v>173.9843481253239</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T27" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U27" t="n">
-        <v>49.42293565463203</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H28" t="n">
         <v>163.9752151566217</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P28" t="n">
-        <v>32.184988370526</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q28" t="n">
         <v>117.7104335796887</v>
@@ -24685,13 +24685,13 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142788</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G29" t="n">
         <v>421.2772936997861</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S29" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T29" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V29" t="n">
-        <v>113.1096189720542</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>172.485279179597</v>
       </c>
       <c r="Y29" t="n">
-        <v>374.6654844273981</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T30" t="n">
         <v>228.1472729888334</v>
@@ -24821,13 +24821,13 @@
         <v>49.10510215120351</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X30" t="n">
-        <v>176.9376299022304</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>66.56466628967763</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841969</v>
       </c>
       <c r="C31" t="n">
         <v>165.5867821959998</v>
@@ -24876,10 +24876,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P31" t="n">
-        <v>32.184988370526</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q31" t="n">
         <v>117.7104335796887</v>
@@ -24925,16 +24925,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>183.6269548123714</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G32" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H32" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531762</v>
       </c>
       <c r="I32" t="n">
         <v>218.4609991818855</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R32" t="n">
         <v>152.9181242911417</v>
@@ -24973,19 +24973,19 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U32" t="n">
-        <v>48.52174827781303</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>192.6352630445873</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.7341533662133</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
         <v>172.0989423795122</v>
@@ -25013,13 +25013,13 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I33" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T33" t="n">
-        <v>219.5464073141203</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V33" t="n">
         <v>49.10510215120351</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>106.9176566390154</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="34">
@@ -25125,10 +25125,10 @@
         <v>202.8351353702983</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5152460466891</v>
+        <v>236.6308406326193</v>
       </c>
       <c r="T34" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U34" t="n">
         <v>291.1974793176597</v>
@@ -25156,7 +25156,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>133.4022964452396</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25204,13 +25204,13 @@
         <v>152.9181242911417</v>
       </c>
       <c r="S35" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771813</v>
       </c>
       <c r="T35" t="n">
         <v>15.19473356729725</v>
       </c>
       <c r="U35" t="n">
-        <v>72.3849711828662</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25219,10 +25219,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>201.5973762712664</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I36" t="n">
-        <v>100.3110001810774</v>
+        <v>48.36490376453821</v>
       </c>
       <c r="J36" t="n">
         <v>35.79733752996917</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T36" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V36" t="n">
-        <v>196.2044913714398</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W36" t="n">
-        <v>83.05443373396224</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
         <v>29.83824068199411</v>
@@ -25359,13 +25359,13 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R37" t="n">
-        <v>180.7195407843681</v>
+        <v>202.8351353702983</v>
       </c>
       <c r="S37" t="n">
         <v>236.6308406326193</v>
       </c>
       <c r="T37" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U37" t="n">
         <v>291.1974793176597</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C38" t="n">
-        <v>310.1836436414341</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25402,13 +25402,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>222.8148174494533</v>
       </c>
       <c r="G38" t="n">
         <v>421.2772936997861</v>
       </c>
       <c r="H38" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531762</v>
       </c>
       <c r="I38" t="n">
         <v>218.4609991818855</v>
@@ -25438,13 +25438,13 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S38" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T38" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U38" t="n">
         <v>248.7165713067819</v>
@@ -25472,16 +25472,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>203.8424276152394</v>
+        <v>196.4623547657941</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>134.3651114888702</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>160.5316703761085</v>
@@ -25493,7 +25493,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J39" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T39" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U39" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V39" t="n">
-        <v>49.10510215120351</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841969</v>
       </c>
       <c r="C40" t="n">
         <v>165.5867821959998</v>
@@ -25587,13 +25587,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P40" t="n">
         <v>40.84461224785827</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.0508097023564</v>
+        <v>117.7104335796887</v>
       </c>
       <c r="R40" t="n">
         <v>202.8351353702983</v>
@@ -25639,7 +25639,7 @@
         <v>159.7637319073185</v>
       </c>
       <c r="F41" t="n">
-        <v>198.9515945444002</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.2772936997861</v>
@@ -25678,25 +25678,25 @@
         <v>152.9181242911417</v>
       </c>
       <c r="S41" t="n">
-        <v>38.3523059827713</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T41" t="n">
-        <v>215.3895565962661</v>
+        <v>39.05795647235041</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>203.8424276152394</v>
@@ -25718,7 +25718,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>121.5790200645204</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
         <v>160.5316703761085</v>
@@ -25727,10 +25727,10 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S42" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>228.1472729888334</v>
+        <v>50.66633547272423</v>
       </c>
       <c r="U42" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W42" t="n">
         <v>83.05443373396224</v>
       </c>
       <c r="X42" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
         <v>242.8962664135933</v>
@@ -25836,13 +25836,13 @@
         <v>202.8351353702983</v>
       </c>
       <c r="S43" t="n">
-        <v>214.515246046689</v>
+        <v>236.6308406326193</v>
       </c>
       <c r="T43" t="n">
         <v>216.3554192360613</v>
       </c>
       <c r="U43" t="n">
-        <v>291.1974793176597</v>
+        <v>269.0818847317295</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25876,19 +25876,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G44" t="n">
         <v>221.0824706708172</v>
       </c>
       <c r="H44" t="n">
-        <v>316.995680149371</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I44" t="n">
-        <v>18.26617615291661</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J44" t="n">
-        <v>24.50765323923468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S44" t="n">
-        <v>214.683906106687</v>
+        <v>62.85995922200595</v>
       </c>
       <c r="T44" t="n">
-        <v>215.3895565962661</v>
+        <v>15.19473356729725</v>
       </c>
       <c r="U44" t="n">
         <v>248.7165713067819</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.7341533662133</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25946,16 +25946,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>160.5316703761085</v>
@@ -25967,7 +25967,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J45" t="n">
-        <v>18.83040205419965</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S45" t="n">
-        <v>199.0454856367754</v>
+        <v>168.6023529887269</v>
       </c>
       <c r="T45" t="n">
         <v>228.1472729888334</v>
@@ -26003,16 +26003,16 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>165.5867821959998</v>
       </c>
       <c r="D46" t="n">
-        <v>119.2831487506025</v>
+        <v>119.2831487506026</v>
       </c>
       <c r="E46" t="n">
         <v>136.4317244039137</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>432967.0422526453</v>
+        <v>432967.0422526452</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432967.0422526452</v>
+        <v>432967.0422526454</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432967.0422526452</v>
+        <v>432967.0422526453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432967.0422526452</v>
+        <v>432967.0422526453</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713195.7535049174</v>
+        <v>713195.7535049169</v>
       </c>
       <c r="C2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049169</v>
       </c>
       <c r="D2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049171</v>
       </c>
       <c r="E2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894842</v>
       </c>
       <c r="F2" t="n">
-        <v>324725.281689484</v>
+        <v>324725.2816894842</v>
       </c>
       <c r="G2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="H2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="I2" t="n">
         <v>324725.2816894841</v>
@@ -26340,22 +26340,22 @@
         <v>324725.2816894842</v>
       </c>
       <c r="K2" t="n">
+        <v>324725.2816894842</v>
+      </c>
+      <c r="L2" t="n">
         <v>324725.2816894841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324725.2816894842</v>
       </c>
       <c r="M2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="N2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="O2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="P2" t="n">
-        <v>324725.2816894841</v>
+        <v>324725.281689484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>522004.3016633259</v>
+        <v>522004.3016633258</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49889.35067811118</v>
+        <v>49889.35067811119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>489426.3471358459</v>
       </c>
       <c r="E4" t="n">
-        <v>145.8747087753026</v>
+        <v>145.8747087753025</v>
       </c>
       <c r="F4" t="n">
         <v>145.8747087753025</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24714.27487147588</v>
+        <v>24714.27487147587</v>
       </c>
       <c r="F5" t="n">
         <v>24714.27487147587</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190141.8063690715</v>
+        <v>190094.8618281383</v>
       </c>
       <c r="C6" t="n">
-        <v>190141.8063690711</v>
+        <v>190094.8618281383</v>
       </c>
       <c r="D6" t="n">
-        <v>190141.8063690711</v>
+        <v>190094.8618281385</v>
       </c>
       <c r="E6" t="n">
-        <v>-222139.1695540927</v>
+        <v>-235135.1298222066</v>
       </c>
       <c r="F6" t="n">
-        <v>299865.1321092328</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="G6" t="n">
-        <v>299865.1321092329</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="H6" t="n">
-        <v>299865.132109233</v>
+        <v>286869.171841119</v>
       </c>
       <c r="I6" t="n">
-        <v>299865.1321092329</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="J6" t="n">
-        <v>299865.132109233</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="K6" t="n">
-        <v>299865.1321092329</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="L6" t="n">
-        <v>299865.132109233</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="M6" t="n">
-        <v>249975.7814311218</v>
+        <v>236979.8211630079</v>
       </c>
       <c r="N6" t="n">
-        <v>299865.132109233</v>
+        <v>286869.171841119</v>
       </c>
       <c r="O6" t="n">
-        <v>299865.132109233</v>
+        <v>286869.1718411191</v>
       </c>
       <c r="P6" t="n">
-        <v>299865.1321092329</v>
+        <v>286869.171841119</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>575.3408087758975</v>
+        <v>575.3408087758974</v>
       </c>
       <c r="F3" t="n">
         <v>575.3408087758974</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.194823028969</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="F4" t="n">
         <v>200.1948230289689</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>575.3408087758975</v>
+        <v>575.3408087758974</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.194823028969</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.194823028969</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.312927874475968</v>
+        <v>2.312927874475967</v>
       </c>
       <c r="H11" t="n">
         <v>23.68727259447701</v>
       </c>
       <c r="I11" t="n">
-        <v>89.16915188073484</v>
+        <v>89.16915188073483</v>
       </c>
       <c r="J11" t="n">
-        <v>196.3068621863049</v>
+        <v>196.3068621863048</v>
       </c>
       <c r="K11" t="n">
-        <v>294.2130991128727</v>
+        <v>294.2130991128726</v>
       </c>
       <c r="L11" t="n">
         <v>364.9973655513666</v>
       </c>
       <c r="M11" t="n">
-        <v>406.1298966390786</v>
+        <v>406.1298966390785</v>
       </c>
       <c r="N11" t="n">
-        <v>412.7015029624335</v>
+        <v>412.7015029624334</v>
       </c>
       <c r="O11" t="n">
-        <v>389.7023264106131</v>
+        <v>389.702326410613</v>
       </c>
       <c r="P11" t="n">
         <v>332.6019195094875</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.7701900048169</v>
+        <v>249.7701900048168</v>
       </c>
       <c r="R11" t="n">
-        <v>145.2894555950512</v>
+        <v>145.2894555950511</v>
       </c>
       <c r="S11" t="n">
-        <v>52.70584393962118</v>
+        <v>52.70584393962116</v>
       </c>
       <c r="T11" t="n">
-        <v>10.12484177051856</v>
+        <v>10.12484177051855</v>
       </c>
       <c r="U11" t="n">
         <v>0.1850342299580774</v>
@@ -31837,43 +31837,43 @@
         <v>11.95189114079742</v>
       </c>
       <c r="I12" t="n">
-        <v>42.60778631029053</v>
+        <v>42.60778631029052</v>
       </c>
       <c r="J12" t="n">
         <v>116.9190222815246</v>
       </c>
       <c r="K12" t="n">
-        <v>199.8332316670021</v>
+        <v>199.833231667002</v>
       </c>
       <c r="L12" t="n">
         <v>268.7004409287812</v>
       </c>
       <c r="M12" t="n">
-        <v>313.5607407828641</v>
+        <v>313.560740782864</v>
       </c>
       <c r="N12" t="n">
         <v>321.8597605622825</v>
       </c>
       <c r="O12" t="n">
-        <v>212.7847759556244</v>
+        <v>294.438800506284</v>
       </c>
       <c r="P12" t="n">
-        <v>236.3130955894814</v>
+        <v>236.3130955894813</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1032497894857</v>
+        <v>157.969046213337</v>
       </c>
       <c r="R12" t="n">
-        <v>76.83513668897743</v>
+        <v>76.83513668897741</v>
       </c>
       <c r="S12" t="n">
         <v>22.98649363364079</v>
       </c>
       <c r="T12" t="n">
-        <v>4.988096257217449</v>
+        <v>4.988096257217448</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08141615218526854</v>
+        <v>0.08141615218526853</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.037499819104077</v>
       </c>
       <c r="H13" t="n">
-        <v>9.224316573488984</v>
+        <v>9.224316573488982</v>
       </c>
       <c r="I13" t="n">
-        <v>31.20044910542081</v>
+        <v>31.2004491054208</v>
       </c>
       <c r="J13" t="n">
-        <v>73.35123721065825</v>
+        <v>73.35123721065824</v>
       </c>
       <c r="K13" t="n">
         <v>120.5386153468191</v>
@@ -31931,7 +31931,7 @@
         <v>162.6328125528327</v>
       </c>
       <c r="N13" t="n">
-        <v>158.7657677725359</v>
+        <v>158.7657677725358</v>
       </c>
       <c r="O13" t="n">
         <v>146.6458835220927</v>
@@ -31940,19 +31940,19 @@
         <v>125.4808872123694</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.87646212516051</v>
+        <v>86.8764621251605</v>
       </c>
       <c r="R13" t="n">
-        <v>46.64976459353423</v>
+        <v>46.64976459353421</v>
       </c>
       <c r="S13" t="n">
-        <v>18.08079230202287</v>
+        <v>18.08079230202286</v>
       </c>
       <c r="T13" t="n">
-        <v>4.432953772535602</v>
+        <v>4.432953772535601</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05659089922385883</v>
+        <v>0.05659089922385881</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,16 +32080,16 @@
         <v>116.9190222815246</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8321428767296</v>
+        <v>199.833231667002</v>
       </c>
       <c r="L15" t="n">
         <v>268.7004409287812</v>
       </c>
       <c r="M15" t="n">
-        <v>205.3285065142609</v>
+        <v>286.9825310649207</v>
       </c>
       <c r="N15" t="n">
-        <v>321.8597605622825</v>
+        <v>267.6530596215199</v>
       </c>
       <c r="O15" t="n">
         <v>294.438800506284</v>
@@ -32098,7 +32098,7 @@
         <v>236.3130955894813</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1032497894857</v>
+        <v>157.969046213337</v>
       </c>
       <c r="R15" t="n">
         <v>76.83513668897741</v>
@@ -32323,7 +32323,7 @@
         <v>268.7004409287812</v>
       </c>
       <c r="M18" t="n">
-        <v>130.4616213001375</v>
+        <v>232.8658243120871</v>
       </c>
       <c r="N18" t="n">
         <v>267.65305962152</v>
@@ -32560,7 +32560,7 @@
         <v>268.7004409287812</v>
       </c>
       <c r="M21" t="n">
-        <v>313.560740782864</v>
+        <v>283.6842575350823</v>
       </c>
       <c r="N21" t="n">
         <v>321.8597605622825</v>
@@ -32797,10 +32797,10 @@
         <v>268.7004409287812</v>
       </c>
       <c r="M24" t="n">
-        <v>251.5449378751372</v>
+        <v>286.9825310649207</v>
       </c>
       <c r="N24" t="n">
-        <v>321.8597605622825</v>
+        <v>111.1321498567365</v>
       </c>
       <c r="O24" t="n">
         <v>294.438800506284</v>
@@ -33034,7 +33034,7 @@
         <v>268.7004409287812</v>
       </c>
       <c r="M27" t="n">
-        <v>130.4616213001372</v>
+        <v>205.3285065142609</v>
       </c>
       <c r="N27" t="n">
         <v>267.6530596215199</v>
@@ -33274,10 +33274,10 @@
         <v>286.9825310649207</v>
       </c>
       <c r="N30" t="n">
-        <v>321.8597605622825</v>
+        <v>267.6530596215199</v>
       </c>
       <c r="O30" t="n">
-        <v>294.438800506284</v>
+        <v>287.7192993781567</v>
       </c>
       <c r="P30" t="n">
         <v>236.3130955894813</v>
@@ -33505,13 +33505,13 @@
         <v>199.833231667002</v>
       </c>
       <c r="L33" t="n">
-        <v>208.5980209428971</v>
+        <v>268.7004409287812</v>
       </c>
       <c r="M33" t="n">
         <v>286.9825310649207</v>
       </c>
       <c r="N33" t="n">
-        <v>321.8597605622825</v>
+        <v>267.6530596215199</v>
       </c>
       <c r="O33" t="n">
         <v>294.438800506284</v>
@@ -33520,7 +33520,7 @@
         <v>236.3130955894813</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.969046213337</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R33" t="n">
         <v>76.83513668897741</v>
@@ -33745,10 +33745,10 @@
         <v>268.7004409287812</v>
       </c>
       <c r="M36" t="n">
-        <v>197.4627100904097</v>
+        <v>313.560740782864</v>
       </c>
       <c r="N36" t="n">
-        <v>267.6530596215199</v>
+        <v>243.6269636099117</v>
       </c>
       <c r="O36" t="n">
         <v>294.438800506284</v>
@@ -33757,7 +33757,7 @@
         <v>236.3130955894813</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.969046213337</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R36" t="n">
         <v>76.83513668897741</v>
@@ -33976,13 +33976,13 @@
         <v>116.9190222815246</v>
       </c>
       <c r="K39" t="n">
-        <v>132.8321428767296</v>
+        <v>199.833231667002</v>
       </c>
       <c r="L39" t="n">
         <v>268.7004409287812</v>
       </c>
       <c r="M39" t="n">
-        <v>286.9825310649207</v>
+        <v>313.560740782864</v>
       </c>
       <c r="N39" t="n">
         <v>321.8597605622825</v>
@@ -33994,7 +33994,7 @@
         <v>236.3130955894813</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.969046213337</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R39" t="n">
         <v>76.83513668897741</v>
@@ -34383,7 +34383,7 @@
         <v>412.7015029624334</v>
       </c>
       <c r="O44" t="n">
-        <v>389.7023264106127</v>
+        <v>389.702326410613</v>
       </c>
       <c r="P44" t="n">
         <v>332.6019195094875</v>
@@ -34453,7 +34453,7 @@
         <v>199.833231667002</v>
       </c>
       <c r="L45" t="n">
-        <v>268.7004409287812</v>
+        <v>208.5980209428971</v>
       </c>
       <c r="M45" t="n">
         <v>313.560740782864</v>
@@ -34465,7 +34465,7 @@
         <v>294.438800506284</v>
       </c>
       <c r="P45" t="n">
-        <v>146.7932746149704</v>
+        <v>236.3130955894813</v>
       </c>
       <c r="Q45" t="n">
         <v>157.969046213337</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>56.60949922809147</v>
+        <v>56.60949922809141</v>
       </c>
       <c r="L11" t="n">
-        <v>128.7808994408774</v>
+        <v>128.7808994408773</v>
       </c>
       <c r="M11" t="n">
         <v>186.1220492523287</v>
       </c>
       <c r="N11" t="n">
-        <v>190.8950977995351</v>
+        <v>190.895097799535</v>
       </c>
       <c r="O11" t="n">
-        <v>152.19173933471</v>
+        <v>152.1917393347099</v>
       </c>
       <c r="P11" t="n">
-        <v>78.0913273419913</v>
+        <v>78.09132734199125</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L12" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M12" t="n">
-        <v>200.194823028969</v>
+        <v>114.096229652747</v>
       </c>
       <c r="N12" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O12" t="n">
-        <v>106.6419714675741</v>
+        <v>188.2959960182337</v>
       </c>
       <c r="P12" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.866365365916238</v>
+        <v>5.866365365916209</v>
       </c>
       <c r="N13" t="n">
-        <v>16.6982653716924</v>
+        <v>16.69826537169237</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M15" t="n">
-        <v>118.5407984783091</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N15" t="n">
         <v>200.1948230289689</v>
@@ -35743,10 +35743,10 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P15" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602336</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.146295295723925</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M18" t="n">
-        <v>43.67391326418564</v>
+        <v>146.0781162761353</v>
       </c>
       <c r="N18" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="O18" t="n">
-        <v>188.2959960182337</v>
+        <v>85.89179300628402</v>
       </c>
       <c r="P18" t="n">
         <v>123.175844592407</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L21" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M21" t="n">
-        <v>200.1948230289689</v>
+        <v>196.8965494991304</v>
       </c>
       <c r="N21" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O21" t="n">
-        <v>98.77617504372277</v>
+        <v>188.2959960182337</v>
       </c>
       <c r="P21" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602336</v>
       </c>
       <c r="Q21" t="n">
         <v>7.865796423851265</v>
@@ -36445,10 +36445,10 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M24" t="n">
-        <v>43.67391326418541</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N24" t="n">
-        <v>200.1948230289689</v>
+        <v>43.67391326418547</v>
       </c>
       <c r="O24" t="n">
         <v>188.2959960182337</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M27" t="n">
-        <v>43.67391326418541</v>
+        <v>118.5407984783091</v>
       </c>
       <c r="N27" t="n">
         <v>200.1948230289689</v>
@@ -36694,7 +36694,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.898668804388381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>66.06466050071518</v>
+        <v>162.4831502796146</v>
       </c>
       <c r="M30" t="n">
         <v>200.1948230289689</v>
@@ -36925,10 +36925,10 @@
         <v>200.1948230289689</v>
       </c>
       <c r="O30" t="n">
-        <v>188.2959960182337</v>
+        <v>181.5764948901064</v>
       </c>
       <c r="P30" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602336</v>
       </c>
       <c r="Q30" t="n">
         <v>7.865796423851265</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>5.962240514831088</v>
+        <v>162.4831502796146</v>
       </c>
       <c r="M33" t="n">
         <v>200.1948230289689</v>
@@ -37165,10 +37165,10 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P33" t="n">
-        <v>123.175844592407</v>
+        <v>41.52182004174732</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L36" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M36" t="n">
-        <v>110.6750020544579</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N36" t="n">
-        <v>200.1948230289689</v>
+        <v>51.5397096880367</v>
       </c>
       <c r="O36" t="n">
         <v>188.2959960182337</v>
@@ -37405,7 +37405,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L39" t="n">
-        <v>72.96332930510356</v>
+        <v>162.4831502796146</v>
       </c>
       <c r="M39" t="n">
-        <v>200.1948230289689</v>
+        <v>121.962026076598</v>
       </c>
       <c r="N39" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O39" t="n">
         <v>188.2959960182337</v>
@@ -37642,7 +37642,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>67.00108879027246</v>
       </c>
       <c r="L42" t="n">
-        <v>84.25035332724372</v>
+        <v>162.4831502796146</v>
       </c>
       <c r="M42" t="n">
-        <v>200.1948230289689</v>
+        <v>121.962026076598</v>
       </c>
       <c r="N42" t="n">
         <v>129.7725066404075</v>
@@ -38025,13 +38025,13 @@
         <v>128.7808994408773</v>
       </c>
       <c r="M44" t="n">
-        <v>186.1220492523287</v>
+        <v>186.1220492523284</v>
       </c>
       <c r="N44" t="n">
         <v>190.895097799535</v>
       </c>
       <c r="O44" t="n">
-        <v>152.1917393347097</v>
+        <v>152.1917393347099</v>
       </c>
       <c r="P44" t="n">
         <v>78.09132734199125</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L45" t="n">
-        <v>162.4831502796146</v>
+        <v>5.962240514831088</v>
       </c>
       <c r="M45" t="n">
         <v>200.1948230289689</v>
@@ -38113,7 +38113,7 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P45" t="n">
-        <v>33.65602361789609</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q45" t="n">
         <v>7.865796423851265</v>
